--- a/data/trans_orig/P8_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6547B189-662D-48CB-BFA6-6231D5144443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{969EBA19-778A-4F1F-A9A9-7843D7A06DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB514459-1B6F-4D28-B58A-AB295E531F35}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84FF490E-1E22-47A6-979A-847E6FDC91A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1474 +77,1492 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>12,32%</t>
   </si>
   <si>
     <t>82,29%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>87,68%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
   </si>
   <si>
     <t>44,33%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>55,67%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C05BDD-CCC7-4DEF-83B0-A9A8C11D2B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7ACA25-5115-4629-A9E4-9521A99DA54F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2390,13 +2408,13 @@
         <v>26660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -2405,13 +2423,13 @@
         <v>55235</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -2420,13 +2438,13 @@
         <v>81895</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2459,13 @@
         <v>612008</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -2456,13 +2474,13 @@
         <v>634509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1192</v>
@@ -2471,13 +2489,13 @@
         <v>1246517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2551,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2563,13 @@
         <v>37594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -2560,13 +2578,13 @@
         <v>79111</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -2575,13 +2593,13 @@
         <v>116705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2614,13 @@
         <v>481553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>423</v>
@@ -2611,13 +2629,13 @@
         <v>436531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -2626,13 +2644,13 @@
         <v>918084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2718,13 @@
         <v>79369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -2715,13 +2733,13 @@
         <v>111963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -2730,13 +2748,13 @@
         <v>191331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2769,13 @@
         <v>307341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -2766,13 +2784,13 @@
         <v>292023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -2781,13 +2799,13 @@
         <v>599365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2873,13 @@
         <v>191522</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>418</v>
@@ -2870,13 +2888,13 @@
         <v>435430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>620</v>
@@ -2885,13 +2903,13 @@
         <v>626952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2924,13 @@
         <v>310944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>243</v>
@@ -2921,13 +2939,13 @@
         <v>241412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>564</v>
@@ -2936,13 +2954,13 @@
         <v>552356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3028,13 @@
         <v>365764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>698</v>
@@ -3025,13 +3043,13 @@
         <v>724015</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1074</v>
@@ -3040,13 +3058,13 @@
         <v>1089779</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3079,13 @@
         <v>2910780</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2599</v>
@@ -3076,28 +3094,28 @@
         <v>2655183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5437</v>
       </c>
       <c r="N23" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3157,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3153,7 +3171,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EE644-52DA-4380-9F57-1F1B6DB9BD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FB9118-CC3B-40F2-8126-0A5391CDEF44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3317,13 @@
         <v>7862</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3314,13 +3332,13 @@
         <v>14691</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3329,13 +3347,13 @@
         <v>22553</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3368,13 @@
         <v>446284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3365,13 +3383,13 @@
         <v>415539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>845</v>
@@ -3380,13 +3398,13 @@
         <v>861823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3472,13 @@
         <v>23955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3469,13 +3487,13 @@
         <v>28438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3484,13 +3502,13 @@
         <v>52393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3523,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3520,13 +3538,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -3535,13 +3553,13 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3627,13 @@
         <v>41960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3624,13 +3642,13 @@
         <v>79671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -3639,13 +3657,13 @@
         <v>121631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3678,13 @@
         <v>639903</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3675,13 +3693,13 @@
         <v>631179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -3690,13 +3708,13 @@
         <v>1271081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3770,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3782,13 @@
         <v>67133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -3779,13 +3797,13 @@
         <v>102587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3794,13 +3812,13 @@
         <v>169719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3833,13 @@
         <v>547484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -3830,13 +3848,13 @@
         <v>513612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>934</v>
@@ -3845,13 +3863,13 @@
         <v>1061097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3937,13 @@
         <v>84168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>151</v>
@@ -3934,13 +3952,13 @@
         <v>167588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -3949,13 +3967,13 @@
         <v>251756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3988,13 @@
         <v>345261</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -3985,13 +4003,13 @@
         <v>280212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
@@ -4000,13 +4018,13 @@
         <v>625473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4080,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4092,13 @@
         <v>276311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -4089,13 +4107,13 @@
         <v>508426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>717</v>
@@ -4104,13 +4122,13 @@
         <v>784737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4143,13 @@
         <v>283326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -4140,13 +4158,13 @@
         <v>234549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4155,13 +4173,13 @@
         <v>517875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4247,13 @@
         <v>501388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>830</v>
@@ -4244,13 +4262,13 @@
         <v>901402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1283</v>
@@ -4259,13 +4277,13 @@
         <v>1402790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4298,13 @@
         <v>2925391</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2468</v>
@@ -4295,13 +4313,13 @@
         <v>2656907</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>5224</v>
@@ -4310,13 +4328,13 @@
         <v>5582298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4390,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B66077-6CFA-40DD-B4AB-2FC5C2EDEA8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3F79C6-4EB1-4F44-B585-4A554B3DB701}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4536,13 @@
         <v>2372</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4533,13 +4551,13 @@
         <v>12254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4548,13 +4566,13 @@
         <v>14626</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4587,13 @@
         <v>417091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4584,13 +4602,13 @@
         <v>383501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>782</v>
@@ -4599,13 +4617,13 @@
         <v>800592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4691,13 @@
         <v>20188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4688,13 +4706,13 @@
         <v>25320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4703,13 +4721,13 @@
         <v>45508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4742,13 @@
         <v>570308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4739,13 +4757,13 @@
         <v>538224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -4754,13 +4772,13 @@
         <v>1108532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4846,13 @@
         <v>34796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4843,13 +4861,13 @@
         <v>49469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4858,13 +4876,13 @@
         <v>84265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4897,13 @@
         <v>634301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4894,13 +4912,13 @@
         <v>611917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -4909,13 +4927,13 @@
         <v>1246218</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4989,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +5001,13 @@
         <v>75404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -4998,13 +5016,13 @@
         <v>101438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5013,13 +5031,13 @@
         <v>176842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5052,13 @@
         <v>570644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -5049,28 +5067,28 @@
         <v>547639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>1022</v>
       </c>
       <c r="N14" s="7">
-        <v>1118283</v>
+        <v>1118284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5130,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5126,7 +5144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5156,13 @@
         <v>91164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>139</v>
@@ -5153,13 +5171,13 @@
         <v>157101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5168,13 +5186,13 @@
         <v>248265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5207,13 @@
         <v>386754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -5204,13 +5222,13 @@
         <v>339748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>640</v>
@@ -5219,13 +5237,13 @@
         <v>726502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5299,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5311,13 @@
         <v>246504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -5308,13 +5326,13 @@
         <v>456429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>647</v>
@@ -5323,13 +5341,13 @@
         <v>702932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5362,13 @@
         <v>344824</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>277</v>
@@ -5359,13 +5377,13 @@
         <v>321502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>635</v>
@@ -5374,13 +5392,13 @@
         <v>666327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5466,13 @@
         <v>470427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>697</v>
@@ -5463,13 +5481,13 @@
         <v>802011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1165</v>
@@ -5478,13 +5496,13 @@
         <v>1272438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5517,13 @@
         <v>2923923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2641</v>
@@ -5514,13 +5532,13 @@
         <v>2742531</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>5404</v>
@@ -5529,13 +5547,13 @@
         <v>5666454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8EE122-F58D-4B0D-B4CC-D2A7C61DDBB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A13C11C-EB9C-4CAD-AC5B-099DE08272F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5755,13 @@
         <v>7265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5752,13 +5770,13 @@
         <v>3840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5767,13 +5785,13 @@
         <v>11105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5806,13 @@
         <v>370414</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -5803,13 +5821,13 @@
         <v>351117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -5818,13 +5836,13 @@
         <v>721531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5910,13 @@
         <v>22141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5907,13 +5925,13 @@
         <v>6327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5925,10 +5943,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5961,13 @@
         <v>406255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5958,13 +5976,13 @@
         <v>492888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
@@ -5976,10 +5994,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6065,13 @@
         <v>31253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -6062,13 +6080,13 @@
         <v>45935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6077,13 +6095,13 @@
         <v>77188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6116,13 @@
         <v>525999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
@@ -6113,28 +6131,28 @@
         <v>563908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>427</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
       </c>
       <c r="N11" s="7">
-        <v>1089907</v>
+        <v>1089906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6194,7 @@
         <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>1167095</v>
+        <v>1167094</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6190,7 +6208,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6220,13 @@
         <v>128243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -6217,13 +6235,13 @@
         <v>107787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -6232,13 +6250,13 @@
         <v>236030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6271,13 @@
         <v>595747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>986</v>
@@ -6268,28 +6286,28 @@
         <v>639474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M14" s="7">
         <v>1581</v>
       </c>
       <c r="N14" s="7">
-        <v>1235222</v>
+        <v>1235221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6349,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6345,7 +6363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6375,13 @@
         <v>120974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -6372,13 +6390,13 @@
         <v>149559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -6387,13 +6405,13 @@
         <v>270533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6426,13 @@
         <v>479183</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>760</v>
@@ -6423,13 +6441,13 @@
         <v>447504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
@@ -6438,13 +6456,13 @@
         <v>926687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6518,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6530,13 @@
         <v>241584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>964</v>
@@ -6527,13 +6545,13 @@
         <v>522814</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1314</v>
@@ -6542,13 +6560,13 @@
         <v>764398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,16 +6578,16 @@
         <v>678</v>
       </c>
       <c r="D20" s="7">
-        <v>456170</v>
+        <v>456171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>744</v>
@@ -6578,13 +6596,13 @@
         <v>503823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1422</v>
@@ -6593,13 +6611,13 @@
         <v>959994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,7 +6629,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6667,13 +6685,13 @@
         <v>551459</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>1437</v>
@@ -6682,13 +6700,13 @@
         <v>836262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>2028</v>
@@ -6697,13 +6715,13 @@
         <v>1387721</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6736,13 @@
         <v>2833769</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>3929</v>
@@ -6733,13 +6751,13 @@
         <v>2998714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>6714</v>
@@ -6748,13 +6766,13 @@
         <v>5832483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P8_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{969EBA19-778A-4F1F-A9A9-7843D7A06DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCC38A1-323A-493C-AAC5-F57D44E18A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84FF490E-1E22-47A6-979A-847E6FDC91A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93FE72D6-8015-40E7-961C-A78A40232213}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,175 +77,175 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -257,31 +257,31 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,92%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>90,36%</t>
+    <t>90,08%</t>
   </si>
   <si>
     <t>94,78%</t>
@@ -290,19 +290,19 @@
     <t>84,66%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>38,12%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -485,1075 +485,1051 @@
     <t>0,82%</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
@@ -1974,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7ACA25-5115-4629-A9E4-9521A99DA54F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7619BA-AD88-4893-80E9-25324D46EAD7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3076,7 +3052,7 @@
         <v>2838</v>
       </c>
       <c r="D23" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3127,7 +3103,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3193,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FB9118-CC3B-40F2-8126-0A5391CDEF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90360582-9044-4D21-891E-721C6B14FD49}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,10 +3311,10 @@
         <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3347,13 +3323,13 @@
         <v>22553</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3344,13 @@
         <v>446284</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3383,13 +3359,13 @@
         <v>415539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>845</v>
@@ -3398,13 +3374,13 @@
         <v>861823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3448,13 @@
         <v>23955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3487,13 +3463,13 @@
         <v>28438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3502,13 +3478,13 @@
         <v>52393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3499,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3538,13 +3514,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -3553,13 +3529,13 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3603,13 @@
         <v>41960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3642,13 +3618,13 @@
         <v>79671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -3657,13 +3633,13 @@
         <v>121631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3654,13 @@
         <v>639903</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>594</v>
@@ -3693,13 +3669,13 @@
         <v>631179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -3708,13 +3684,13 @@
         <v>1271081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3758,13 @@
         <v>67133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -3797,13 +3773,13 @@
         <v>102587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3812,13 +3788,13 @@
         <v>169719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3809,13 @@
         <v>547484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -3848,13 +3824,13 @@
         <v>513612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>934</v>
@@ -3863,13 +3839,13 @@
         <v>1061097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3913,13 @@
         <v>84168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>151</v>
@@ -3952,13 +3928,13 @@
         <v>167588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -3967,13 +3943,13 @@
         <v>251756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3964,13 @@
         <v>345261</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -4003,13 +3979,13 @@
         <v>280212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
@@ -4018,13 +3994,13 @@
         <v>625473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4068,13 @@
         <v>276311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -4107,13 +4083,13 @@
         <v>508426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>717</v>
@@ -4122,13 +4098,13 @@
         <v>784737</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4119,13 @@
         <v>283326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -4158,13 +4134,13 @@
         <v>234549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4173,13 +4149,13 @@
         <v>517875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4223,13 @@
         <v>501388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>830</v>
@@ -4262,13 +4238,13 @@
         <v>901402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1283</v>
@@ -4277,13 +4253,13 @@
         <v>1402790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4274,13 @@
         <v>2925391</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2468</v>
@@ -4313,13 +4289,13 @@
         <v>2656907</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5224</v>
@@ -4328,13 +4304,13 @@
         <v>5582298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3F79C6-4EB1-4F44-B585-4A554B3DB701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BF1EFD-EA18-4DE7-A21E-E5FBEA15BFFB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4512,13 @@
         <v>2372</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4551,13 +4527,13 @@
         <v>12254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4566,13 +4542,13 @@
         <v>14626</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4563,13 @@
         <v>417091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4602,13 +4578,13 @@
         <v>383501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>782</v>
@@ -4617,13 +4593,13 @@
         <v>800592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4667,13 @@
         <v>20188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4706,13 +4682,13 @@
         <v>25320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4721,13 +4697,13 @@
         <v>45508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4718,13 @@
         <v>570308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4757,13 +4733,13 @@
         <v>538224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -4772,13 +4748,13 @@
         <v>1108532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4822,13 @@
         <v>34796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4861,13 +4837,13 @@
         <v>49469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4876,13 +4852,13 @@
         <v>84265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4873,13 @@
         <v>634301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4912,13 +4888,13 @@
         <v>611917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -4927,13 +4903,13 @@
         <v>1246218</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4977,13 @@
         <v>75404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5016,13 +4992,13 @@
         <v>101438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5031,13 +5007,13 @@
         <v>176842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5028,13 @@
         <v>570644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -5067,28 +5043,28 @@
         <v>547639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>1022</v>
       </c>
       <c r="N14" s="7">
-        <v>1118284</v>
+        <v>1118283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5106,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5156,13 +5132,13 @@
         <v>91164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>139</v>
@@ -5171,13 +5147,13 @@
         <v>157101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5186,13 +5162,13 @@
         <v>248265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5183,13 @@
         <v>386754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -5222,13 +5198,13 @@
         <v>339748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>640</v>
@@ -5237,13 +5213,13 @@
         <v>726502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5287,13 @@
         <v>246504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -5326,13 +5302,13 @@
         <v>456429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>647</v>
@@ -5341,13 +5317,13 @@
         <v>702932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5338,13 @@
         <v>344824</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>277</v>
@@ -5377,13 +5353,13 @@
         <v>321502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>635</v>
@@ -5392,13 +5368,13 @@
         <v>666327</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5442,13 @@
         <v>470427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>697</v>
@@ -5481,13 +5457,13 @@
         <v>802011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>1165</v>
@@ -5496,13 +5472,13 @@
         <v>1272438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5493,13 @@
         <v>2923923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>2641</v>
@@ -5532,13 +5508,13 @@
         <v>2742531</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>5404</v>
@@ -5547,13 +5523,13 @@
         <v>5666454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A13C11C-EB9C-4CAD-AC5B-099DE08272F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2648DA-BB63-45A8-8D96-0C4886A645DE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5731,13 @@
         <v>7265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5770,13 +5746,13 @@
         <v>3840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5785,13 +5761,13 @@
         <v>11105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5782,13 @@
         <v>370414</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -5821,13 +5797,13 @@
         <v>351117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -5836,13 +5812,13 @@
         <v>721531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5886,13 @@
         <v>22141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5925,13 +5901,13 @@
         <v>6327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5943,10 +5919,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5937,13 @@
         <v>406255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5976,13 +5952,13 @@
         <v>492888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
@@ -5994,10 +5970,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6041,13 @@
         <v>31253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -6080,13 +6056,13 @@
         <v>45935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6095,13 +6071,13 @@
         <v>77188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6092,13 @@
         <v>525999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>781</v>
@@ -6131,13 +6107,13 @@
         <v>563908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -6146,13 +6122,13 @@
         <v>1089906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6196,13 @@
         <v>128243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -6235,13 +6211,13 @@
         <v>107787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -6250,13 +6226,13 @@
         <v>236030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6247,13 @@
         <v>595747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>986</v>
@@ -6286,13 +6262,13 @@
         <v>639474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>1581</v>
@@ -6301,13 +6277,13 @@
         <v>1235221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6351,13 @@
         <v>120974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>242</v>
@@ -6390,13 +6366,13 @@
         <v>149559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -6405,13 +6381,13 @@
         <v>270533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6402,13 @@
         <v>479183</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>760</v>
@@ -6441,13 +6417,13 @@
         <v>447504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
@@ -6456,13 +6432,13 @@
         <v>926687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6506,13 @@
         <v>241584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>964</v>
@@ -6545,13 +6521,13 @@
         <v>522814</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>1314</v>
@@ -6560,13 +6536,13 @@
         <v>764398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6557,13 @@
         <v>456171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>744</v>
@@ -6596,13 +6572,13 @@
         <v>503823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>1422</v>
@@ -6611,13 +6587,13 @@
         <v>959994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6661,13 @@
         <v>551459</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>1437</v>
@@ -6700,13 +6676,13 @@
         <v>836262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>2028</v>
@@ -6715,13 +6691,13 @@
         <v>1387721</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6712,13 @@
         <v>2833769</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>3929</v>
@@ -6751,13 +6727,13 @@
         <v>2998714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>6714</v>
@@ -6766,13 +6742,13 @@
         <v>5832483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
